--- a/data/skew.xlsx
+++ b/data/skew.xlsx
@@ -212,7 +212,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFC9211E"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -300,7 +300,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,7 +371,7 @@
       <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -385,10 +385,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BA55"/>
+  <dimension ref="A1:BA56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY31" activeCellId="0" sqref="AY31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z5" activeCellId="0" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4890,7 +4890,7 @@
         <f aca="false">-D33*$Z$2+D2</f>
         <v>0</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="2" t="n">
         <f aca="false">-E33*$Z$2+E2</f>
         <v>0</v>
       </c>
@@ -5099,7 +5099,7 @@
         <f aca="false">-D33*$Z$3+D3</f>
         <v>0.00241316453684703</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="2" t="n">
         <f aca="false">-E33*$Z$3+E3</f>
         <v>-0.00241316359239363</v>
       </c>
@@ -5308,7 +5308,7 @@
         <f aca="false">-D33*$Z$4+D4</f>
         <v>-1389.97794686258</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="2" t="n">
         <f aca="false">-E33*$Z$4+E4</f>
         <v>1389.97740280628</v>
       </c>
@@ -5500,10 +5500,14 @@
         <f aca="false">-AZ33*$Z$4+AZ4</f>
         <v>1.9999878353143</v>
       </c>
+      <c r="BA32" s="0" t="n">
+        <f aca="false">AZ32/E32</f>
+        <v>0.00143886356085821</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>3</v>
+      <c r="A33" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">B5/$Z$5</f>
@@ -5517,7 +5521,7 @@
         <f aca="false">D5/$Z$5</f>
         <v>977518763.176013</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="2" t="n">
         <f aca="false">E5/$Z$5</f>
         <v>-977518395.99615</v>
       </c>
@@ -5726,7 +5730,7 @@
         <f aca="false">-D33*$Z$6+D6</f>
         <v>-0.00241316453684703</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="2" t="n">
         <f aca="false">-E33*$Z$6+E6</f>
         <v>0.00241316359239363</v>
       </c>
@@ -5917,6 +5921,10 @@
       <c r="AZ34" s="0" t="n">
         <f aca="false">-AZ33*$Z$6+AZ6</f>
         <v>1.00000347221316</v>
+      </c>
+      <c r="BA34" s="0" t="n">
+        <f aca="false">AZ34/E34</f>
+        <v>414.395225986834</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5935,7 +5943,7 @@
         <f aca="false">-D33*$Z$7+D7</f>
         <v>0</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="2" t="n">
         <f aca="false">-E33*$Z$7+E7</f>
         <v>0</v>
       </c>
@@ -6144,7 +6152,7 @@
         <f aca="false">-D33*$Z$8+D8</f>
         <v>67928783.4259599</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="2" t="n">
         <f aca="false">-E33*$Z$8+E8</f>
         <v>-67928786.9823631</v>
       </c>
@@ -6353,7 +6361,7 @@
         <f aca="false">-D33*$Z$9+D9</f>
         <v>-235.867063479156</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="2" t="n">
         <f aca="false">-E33*$Z$9+E9</f>
         <v>235.867075826876</v>
       </c>
@@ -6544,6 +6552,10 @@
       <c r="AZ37" s="0" t="n">
         <f aca="false">-AZ33*$Z$9+AZ9</f>
         <v>0.999997119009353</v>
+      </c>
+      <c r="BA37" s="0" t="n">
+        <f aca="false">AZ37/E37</f>
+        <v>0.00423966386789541</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6562,7 +6574,7 @@
         <f aca="false">-D33*$Z$10+D10</f>
         <v>67930173.4039069</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="2" t="n">
         <f aca="false">-E33*$Z$10+E10</f>
         <v>-67930176.9597659</v>
       </c>
@@ -6771,7 +6783,7 @@
         <f aca="false">-D33*$Z$11+D11</f>
         <v>-67928783.4259599</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="2" t="n">
         <f aca="false">-E33*$Z$11+E11</f>
         <v>67928786.9823631</v>
       </c>
@@ -6962,6 +6974,10 @@
       <c r="AZ39" s="0" t="n">
         <f aca="false">-AZ33*$Z$11+AZ11</f>
         <v>0.170283656989884</v>
+      </c>
+      <c r="BA39" s="0" t="n">
+        <f aca="false">AZ39/E39</f>
+        <v>2.50679666978444E-009</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6980,7 +6996,7 @@
         <f aca="false">-D33*$Z$12+D12</f>
         <v>235.867063479156</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="2" t="n">
         <f aca="false">-E33*$Z$12+E12</f>
         <v>-235.867075826876</v>
       </c>
@@ -7189,7 +7205,7 @@
         <f aca="false">-D33*$Z$13+D13</f>
         <v>67928783.4259599</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="2" t="n">
         <f aca="false">-E33*$Z$13+E13</f>
         <v>-67928786.9823631</v>
       </c>
@@ -7398,7 +7414,7 @@
         <f aca="false">-D33*$Z$14+D14</f>
         <v>-67928992.8801337</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="2" t="n">
         <f aca="false">-E33*$Z$14+E14</f>
         <v>67928996.4364575</v>
       </c>
@@ -7589,6 +7605,10 @@
       <c r="AZ42" s="0" t="n">
         <f aca="false">-AZ33*$Z$14+AZ14</f>
         <v>0.170281716682814</v>
+      </c>
+      <c r="BA42" s="0" t="n">
+        <f aca="false">AZ42/E42</f>
+        <v>2.50676037650725E-009</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7607,7 +7627,7 @@
         <f aca="false">-D33*$Z$15+D15</f>
         <v>235.867063479156</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="2" t="n">
         <f aca="false">-E33*$Z$15+E15</f>
         <v>-235.867075826876</v>
       </c>
@@ -7816,7 +7836,7 @@
         <f aca="false">-D33*$Z$16+D16</f>
         <v>-67929963.9497331</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="2" t="n">
         <f aca="false">-E33*$Z$16+E16</f>
         <v>67929967.5056715</v>
       </c>
@@ -8007,6 +8027,10 @@
       <c r="AZ44" s="0" t="n">
         <f aca="false">-AZ33*$Z$16+AZ16</f>
         <v>0.170273432611253</v>
+      </c>
+      <c r="BA44" s="0" t="n">
+        <f aca="false">AZ44/E44</f>
+        <v>2.50660259180953E-009</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8025,7 +8049,7 @@
         <f aca="false">-D33*$Z$17+D17</f>
         <v>67928992.8801337</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="2" t="n">
         <f aca="false">-E33*$Z$17+E17</f>
         <v>-67928996.4364575</v>
       </c>
@@ -8234,7 +8258,7 @@
         <f aca="false">-D33*$Z$18+D18</f>
         <v>-235.867063479156</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="2" t="n">
         <f aca="false">-E33*$Z$18+E18</f>
         <v>235.867075826876</v>
       </c>
@@ -8425,6 +8449,10 @@
       <c r="AZ46" s="0" t="n">
         <f aca="false">-AZ33*$Z$18+AZ18</f>
         <v>0.999997119009353</v>
+      </c>
+      <c r="BA46" s="0" t="n">
+        <f aca="false">AZ46/E46</f>
+        <v>0.00423966386789541</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8443,7 +8471,7 @@
         <f aca="false">-D33*$Z$19+D19</f>
         <v>-67928992.8801337</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="2" t="n">
         <f aca="false">-E33*$Z$19+E19</f>
         <v>67928996.4364575</v>
       </c>
@@ -8634,6 +8662,10 @@
       <c r="AZ47" s="0" t="n">
         <f aca="false">-AZ33*$Z$19+AZ19</f>
         <v>0.170281716682814</v>
+      </c>
+      <c r="BA47" s="0" t="n">
+        <f aca="false">AZ47/E47</f>
+        <v>2.50676037650725E-009</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8652,7 +8684,7 @@
         <f aca="false">-D33*$Z$20+D20</f>
         <v>-67964182.9435725</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="2" t="n">
         <f aca="false">-E33*$Z$20+E20</f>
         <v>67964189.013883</v>
       </c>
@@ -8843,6 +8875,10 @@
       <c r="AZ48" s="0" t="n">
         <f aca="false">-AZ33*$Z$20+AZ20</f>
         <v>0.290673559462293</v>
+      </c>
+      <c r="BA48" s="0" t="n">
+        <f aca="false">AZ48/E48</f>
+        <v>4.27686350237943E-009</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8861,7 +8897,7 @@
         <f aca="false">-D33*$Z$21+D21</f>
         <v>235.985879842544</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="2" t="n">
         <f aca="false">-E33*$Z$21+E21</f>
         <v>-235.985900920753</v>
       </c>
@@ -9070,7 +9106,7 @@
         <f aca="false">-D33*$Z$22+D22</f>
         <v>-67963211.8739731</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="2" t="n">
         <f aca="false">-E33*$Z$22+E22</f>
         <v>67963217.9446689</v>
       </c>
@@ -9261,6 +9297,10 @@
       <c r="AZ50" s="0" t="n">
         <f aca="false">-AZ33*$Z$22+AZ22</f>
         <v>0.290681843533854</v>
+      </c>
+      <c r="BA50" s="0" t="n">
+        <f aca="false">AZ50/E50</f>
+        <v>4.27704650139591E-009</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9279,7 +9319,7 @@
         <f aca="false">-D33*$Z$23+D23</f>
         <v>67964182.9435725</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="2" t="n">
         <f aca="false">-E33*$Z$23+E23</f>
         <v>-67964189.013883</v>
       </c>
@@ -9488,7 +9528,7 @@
         <f aca="false">-D33*$Z$24+D24</f>
         <v>-235.985879842544</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="2" t="n">
         <f aca="false">-E33*$Z$24+E24</f>
         <v>235.985900920753</v>
       </c>
@@ -9679,6 +9719,10 @@
       <c r="AZ52" s="0" t="n">
         <f aca="false">-AZ33*$Z$24+AZ24</f>
         <v>0.999997537066801</v>
+      </c>
+      <c r="BA52" s="0" t="n">
+        <f aca="false">AZ52/E52</f>
+        <v>0.00423753085741598</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9697,7 +9741,7 @@
         <f aca="false">-D33*$Z$25+D25</f>
         <v>-67964182.9435725</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="2" t="n">
         <f aca="false">-E33*$Z$25+E25</f>
         <v>67964189.013883</v>
       </c>
@@ -9888,6 +9932,10 @@
       <c r="AZ53" s="0" t="n">
         <f aca="false">-AZ33*$Z$25+AZ25</f>
         <v>0.290673559462293</v>
+      </c>
+      <c r="BA53" s="0" t="n">
+        <f aca="false">AZ53/E53</f>
+        <v>4.27686350237943E-009</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9906,7 +9954,7 @@
         <f aca="false">-D33*$Z$26+D26</f>
         <v>-977518763.176013</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="2" t="n">
         <f aca="false">-E33*$Z$26+E26</f>
         <v>977518395.99615</v>
       </c>
@@ -10097,6 +10145,10 @@
       <c r="AZ54" s="0" t="n">
         <f aca="false">-AZ33*$Z$26+AZ26</f>
         <v>1.18087539177468</v>
+      </c>
+      <c r="BA54" s="0" t="n">
+        <f aca="false">AZ54/E54</f>
+        <v>1.20803393226303E-009</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10115,7 +10167,7 @@
         <f aca="false">-D33*$Z$27+D27</f>
         <v>-1</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="2" t="n">
         <f aca="false">-E33*$Z$27+E27</f>
         <v>-1</v>
       </c>
@@ -10306,6 +10358,12 @@
       <c r="AZ55" s="0" t="n">
         <f aca="false">-AZ33*$Z$27+AZ27</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA56" s="0" t="n">
+        <f aca="false">MIN(BA30:BA54)</f>
+        <v>1.20803393226303E-009</v>
       </c>
     </row>
   </sheetData>
